--- a/Original_Data/Index_And_Match.xlsx
+++ b/Original_Data/Index_And_Match.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanch\Documents\GitHub_Excel\Original_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDAB65A5-1549-4F93-862D-689039E8A0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70111624-E2DC-486E-BB6F-18D1839B9ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7AB9DF04-BB73-4050-9493-CEBAB3C416D0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7AB9DF04-BB73-4050-9493-CEBAB3C416D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -950,12 +950,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -966,10 +981,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -978,12 +989,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1011,9 +1029,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1063,21 +1078,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D5E85191-D24B-4230-928D-A5B56DDAC53A}" name="MobileNumber_IndexMatch" displayName="MobileNumber_IndexMatch" ref="A1:D19" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:D19" xr:uid="{D5E85191-D24B-4230-928D-A5B56DDAC53A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B153B183-28C4-4285-ACCA-D458DA2E5F31}" name="Country" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{B153B183-28C4-4285-ACCA-D458DA2E5F31}" name="Country" dataDxfId="4">
       <calculatedColumnFormula>INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FD54AAE7-2EA7-4FDF-8ECB-40F7C90EE7D3}" name="Actual Number" dataDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{FD54AAE7-2EA7-4FDF-8ECB-40F7C90EE7D3}" name="Actual Number" dataDxfId="3" dataCellStyle="Comma">
       <calculatedColumnFormula>RANDBETWEEN(1000000000,(10000000000)-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{42ED2025-4A3C-4320-9E10-55E8AB3C62F8}" name="Country Code" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{B2591CA1-681C-401B-BD1C-74FE942D9A9B}" name="Mobile Number with code" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{42ED2025-4A3C-4320-9E10-55E8AB3C62F8}" name="Country Code" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{B2591CA1-681C-401B-BD1C-74FE942D9A9B}" name="Mobile Number with code" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FD0CE5BF-28A1-4260-88A1-7ECE55113295}" name="Country_Codes8" displayName="Country_Codes8" ref="H1:I241" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FD0CE5BF-28A1-4260-88A1-7ECE55113295}" name="Country_Codes8" displayName="Country_Codes8" ref="H1:I241" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="H1:I241" xr:uid="{FD0CE5BF-28A1-4260-88A1-7ECE55113295}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1F77F08A-2936-4005-9184-F89C1409BEE3}" name="Country"/>
@@ -1386,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23791B1F-192C-4C29-838E-3235A31261EE}">
   <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1420,10 +1435,10 @@
       <c r="B3">
         <v>355</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>268</v>
       </c>
     </row>
@@ -1434,10 +1449,10 @@
       <c r="B4">
         <v>213</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <v>121</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1446,10 +1461,10 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <v>103</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1458,10 +1473,10 @@
       <c r="B6">
         <v>376</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
         <v>154</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -3357,7 +3372,7 @@
   <dimension ref="A1:F241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E2" sqref="E2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3383,10 +3398,10 @@
       <c r="B2">
         <v>93</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3397,10 +3412,10 @@
       <c r="B3">
         <v>355</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3409,10 +3424,10 @@
       <c r="B4">
         <v>213</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3421,10 +3436,10 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3433,10 +3448,10 @@
       <c r="B6">
         <v>376</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -3445,10 +3460,10 @@
       <c r="B7">
         <v>244</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3457,10 +3472,10 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -3469,10 +3484,10 @@
       <c r="B9">
         <v>672</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -3481,10 +3496,10 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -5346,31 +5361,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519D5CC5-935A-4D14-B9F7-C9CE5AA9B75A}">
   <dimension ref="A1:I241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -5383,11 +5398,11 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Saint Vincent and the Grenadines</v>
-      </c>
-      <c r="B2" s="7">
+        <v>Samoa</v>
+      </c>
+      <c r="B2" s="3">
         <f ca="1">RANDBETWEEN(1000000000,(10000000000)-1)</f>
-        <v>2770534830</v>
+        <v>5232095101</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
@@ -5399,11 +5414,11 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Estonia</v>
-      </c>
-      <c r="B3" s="7">
+        <v>Faroe Islands</v>
+      </c>
+      <c r="B3" s="3">
         <f t="shared" ref="B3:B19" ca="1" si="0">RANDBETWEEN(1000000000,(10000000000)-1)</f>
-        <v>9394097629</v>
+        <v>8508794322</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
@@ -5415,11 +5430,11 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Zambia</v>
-      </c>
-      <c r="B4" s="7">
+        <v>Nauru</v>
+      </c>
+      <c r="B4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8288395957</v>
+        <v>2979371260</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -5431,11 +5446,11 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Nauru</v>
-      </c>
-      <c r="B5" s="7">
+        <v>Northern Mariana Islands</v>
+      </c>
+      <c r="B5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4476811441</v>
+        <v>3495390780</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
@@ -5447,11 +5462,11 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Grenada</v>
-      </c>
-      <c r="B6" s="7">
+        <v>Tuvalu</v>
+      </c>
+      <c r="B6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7379632147</v>
+        <v>9616323054</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -5463,11 +5478,11 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Ivory Coast</v>
-      </c>
-      <c r="B7" s="7">
+        <v>American Samoa</v>
+      </c>
+      <c r="B7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6953685770</v>
+        <v>7692319142</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
@@ -5479,11 +5494,11 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Papua New Guinea</v>
-      </c>
-      <c r="B8" s="7">
+        <v>Peru</v>
+      </c>
+      <c r="B8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6444549313</v>
+        <v>3823964027</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -5495,11 +5510,11 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Austria</v>
-      </c>
-      <c r="B9" s="7">
+        <v>Burkina Faso</v>
+      </c>
+      <c r="B9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3842183544</v>
+        <v>3206020020</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -5511,11 +5526,11 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Macau</v>
-      </c>
-      <c r="B10" s="7">
+        <v>Anguilla</v>
+      </c>
+      <c r="B10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3989576485</v>
+        <v>5192086239</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -5527,11 +5542,11 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Vanuatu</v>
-      </c>
-      <c r="B11" s="7">
+        <v>Antigua and Barbuda</v>
+      </c>
+      <c r="B11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5779418319</v>
+        <v>2324060796</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -5543,11 +5558,11 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Western Sahara</v>
-      </c>
-      <c r="B12" s="7">
+        <v>Armenia</v>
+      </c>
+      <c r="B12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4453763924</v>
+        <v>7408030855</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -5559,11 +5574,11 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>French Polynesia</v>
-      </c>
-      <c r="B13" s="7">
+        <v>Georgia</v>
+      </c>
+      <c r="B13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6835839311</v>
+        <v>6394244228</v>
       </c>
       <c r="H13" t="s">
         <v>16</v>
@@ -5575,11 +5590,11 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Monaco</v>
-      </c>
-      <c r="B14" s="7">
+        <v>Turkmenistan</v>
+      </c>
+      <c r="B14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3646436713</v>
+        <v>7797620478</v>
       </c>
       <c r="H14" t="s">
         <v>17</v>
@@ -5591,11 +5606,11 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Romania</v>
-      </c>
-      <c r="B15" s="7">
+        <v>El Salvador</v>
+      </c>
+      <c r="B15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6480667693</v>
+        <v>2523716340</v>
       </c>
       <c r="H15" t="s">
         <v>18</v>
@@ -5607,11 +5622,11 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Liechtenstein</v>
-      </c>
-      <c r="B16" s="7">
+        <v>Hong Kong</v>
+      </c>
+      <c r="B16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6262186031</v>
+        <v>2297248521</v>
       </c>
       <c r="H16" t="s">
         <v>19</v>
@@ -5623,11 +5638,11 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Singapore</v>
-      </c>
-      <c r="B17" s="7">
+        <v>Bangladesh</v>
+      </c>
+      <c r="B17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7571874152</v>
+        <v>7350194093</v>
       </c>
       <c r="H17" t="s">
         <v>20</v>
@@ -5639,11 +5654,11 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Guam</v>
-      </c>
-      <c r="B18" s="7">
+        <v>Sweden</v>
+      </c>
+      <c r="B18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9405873415</v>
+        <v>1237903486</v>
       </c>
       <c r="H18" t="s">
         <v>22</v>
@@ -5655,11 +5670,11 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Guernsey</v>
-      </c>
-      <c r="B19" s="7">
+        <v>Saint Pierre and Miquelon</v>
+      </c>
+      <c r="B19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2262743493</v>
+        <v>3052229138</v>
       </c>
       <c r="H19" t="s">
         <v>23</v>
